--- a/Testcase-TransparenSee.xlsx
+++ b/Testcase-TransparenSee.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DAC\DACAuto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAA49680-4AA6-49B9-B2FA-6A990988E555}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DBA11CD-DA44-4CA8-802C-837E2625F948}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6945" xr2:uid="{66D78547-9A11-428C-B5AF-16FD7C7547B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$735</definedName>
+  </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1383" uniqueCount="1005">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1384" uniqueCount="1006">
   <si>
     <t> </t>
   </si>
@@ -3059,6 +3062,9 @@
   </si>
   <si>
     <t>ScreenCapture needed</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
@@ -3415,8 +3421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD74DF37-6EE2-4904-B097-EF831BBF89C5}">
   <dimension ref="A1:E735"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3548,6 +3554,9 @@
       <c r="D14" t="s">
         <v>24</v>
       </c>
+      <c r="E14" t="s">
+        <v>1005</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
@@ -6645,7 +6654,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="C431" s="1" t="s">
         <v>571</v>
       </c>
@@ -8256,7 +8265,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="638" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="C638" s="1" t="s">
         <v>856</v>
       </c>
@@ -8272,7 +8281,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="640" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="C640" s="1" t="s">
         <v>859</v>
       </c>
@@ -8280,7 +8289,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="641" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="C641" s="1" t="s">
         <v>861</v>
       </c>
@@ -8288,7 +8297,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="642" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="C642" s="1" t="s">
         <v>863</v>
       </c>
@@ -8304,7 +8313,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="644" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="C644" s="1" t="s">
         <v>867</v>
       </c>
@@ -8320,7 +8329,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="646" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="C646" s="1" t="s">
         <v>869</v>
       </c>
@@ -8336,7 +8345,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="648" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="C648" s="1" t="s">
         <v>871</v>
       </c>
@@ -8376,7 +8385,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="653" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="C653" s="1" t="s">
         <v>876</v>
       </c>
@@ -8408,7 +8417,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="657" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="657" spans="3:4" ht="60" x14ac:dyDescent="0.25">
       <c r="C657" s="1" t="s">
         <v>883</v>
       </c>
@@ -8424,7 +8433,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="659" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="659" spans="3:4" ht="60" x14ac:dyDescent="0.25">
       <c r="C659" s="1" t="s">
         <v>885</v>
       </c>
@@ -8432,7 +8441,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="660" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="660" spans="3:4" ht="30" x14ac:dyDescent="0.25">
       <c r="C660" s="1" t="s">
         <v>887</v>
       </c>
@@ -8440,7 +8449,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="661" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="661" spans="3:4" ht="45" x14ac:dyDescent="0.25">
       <c r="C661" s="1" t="s">
         <v>889</v>
       </c>
@@ -8456,7 +8465,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="663" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="663" spans="3:4" ht="45" x14ac:dyDescent="0.25">
       <c r="C663" s="1" t="s">
         <v>892</v>
       </c>
@@ -8472,7 +8481,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="665" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="665" spans="3:4" ht="30" x14ac:dyDescent="0.25">
       <c r="C665" s="1" t="s">
         <v>893</v>
       </c>
@@ -8488,7 +8497,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="667" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="667" spans="3:4" ht="30" x14ac:dyDescent="0.25">
       <c r="C667" s="1" t="s">
         <v>894</v>
       </c>
@@ -8528,7 +8537,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="672" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="672" spans="3:4" ht="30" x14ac:dyDescent="0.25">
       <c r="C672" s="1" t="s">
         <v>899</v>
       </c>
@@ -9018,6 +9027,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E735" xr:uid="{232D6E73-F551-4A15-966D-D0483EAD81C1}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>